--- a/PR2_Analyzer.xlsx
+++ b/PR2_Analyzer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D152E5-6E5C-4FDB-A153-D7AF9AEF3B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D9234B-8D23-42CC-8264-52946058E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <sheet name="Category_Sales" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="106">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -341,6 +340,12 @@
   <si>
     <t>Customers (unique)</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,16 +362,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFED0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -374,18 +401,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1317,11 +1489,21 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
@@ -1331,6 +1513,33 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1345,9 +1554,19 @@
             <c:v>Rows 1–200</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2595,15 +2814,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
@@ -2613,11 +2855,65 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="20"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2629,15 +2925,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
@@ -2647,30 +2966,685 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="10"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2680,9 +3654,9 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="5486400" cy="2926080"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2709,11 +3683,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="5478780" cy="2918460"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
@@ -2739,12 +3713,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="5372100" cy="2941320"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
@@ -2770,12 +3744,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="5364480" cy="2926080"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
@@ -2800,6 +3774,103 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0AE7C987-FF29-4412-8AC5-34E7F5BF9021}" name="Table9" displayName="Table9" ref="A1:N201" totalsRowShown="0">
+  <autoFilter ref="A1:N201" xr:uid="{0AE7C987-FF29-4412-8AC5-34E7F5BF9021}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{8232563E-A653-46D8-92BB-977BA923F371}" name="Customer_ID"/>
+    <tableColumn id="2" xr3:uid="{84A26B19-5657-452D-BB4C-1A78BD4920A0}" name="Customer_Name"/>
+    <tableColumn id="3" xr3:uid="{D557A2B6-1C7D-47D1-9B97-1C987FD003A5}" name="Region"/>
+    <tableColumn id="4" xr3:uid="{5584C388-6FCD-486E-8E74-499318CCFB6E}" name="Product_Category"/>
+    <tableColumn id="5" xr3:uid="{E9594F99-AB44-4B6D-B93C-379C31D9C212}" name="Sales"/>
+    <tableColumn id="6" xr3:uid="{2AB0BEEF-02E4-443D-858A-5C19FD80CBC0}" name="Quantity"/>
+    <tableColumn id="7" xr3:uid="{FE97D6A4-7015-42F7-A04C-1F322B5C17F4}" name="Discount"/>
+    <tableColumn id="8" xr3:uid="{4910AEFA-EA34-41BA-BAE8-41451B551E72}" name="Order_Date" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{76F8C9B5-B8FE-4720-9CD2-8A01EC2D4593}" name="Profit"/>
+    <tableColumn id="10" xr3:uid="{19110AD7-6D09-441B-AD74-450CD5D1E7F1}" name="Customer_Total"/>
+    <tableColumn id="11" xr3:uid="{6FB3B6A7-614F-4B0A-BF22-C946B7B073B4}" name="Profit_Margin"/>
+    <tableColumn id="12" xr3:uid="{D0020B12-90A3-47D9-B4E4-E8DE9933485D}" name="Month"/>
+    <tableColumn id="13" xr3:uid="{53E8E038-8989-4BF2-AF7A-A9A4D660558E}" name="New_Profit (What-If)"/>
+    <tableColumn id="14" xr3:uid="{664AFB98-F7AA-46A7-8D84-0A262D833C82}" name="Timestamp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EA35A191-C933-445E-A011-596894DB69CC}" name="Table8" displayName="Table8" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{EA35A191-C933-445E-A011-596894DB69CC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F72860A8-DE18-4725-AB9E-88221815AA15}" name="Month" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{341F92F7-BF6A-41DC-A5FD-C457F7D95B4D}" name="Total_Sales"/>
+    <tableColumn id="3" xr3:uid="{6F5A0185-E598-458F-B7DB-5EADD996AB60}" name="Growth_%">
+      <calculatedColumnFormula>IFERROR((B2-B1)/B1,)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{91EFCDB5-7D56-4921-A74B-163AEE14C8BE}" name="Table6" displayName="Table6" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{91EFCDB5-7D56-4921-A74B-163AEE14C8BE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{18DBD4A9-DDAC-46E2-A3FE-EBF4598A4682}" name="Region"/>
+    <tableColumn id="2" xr3:uid="{8955358B-2401-477D-8D6E-C58F77496DC6}" name="Books"/>
+    <tableColumn id="3" xr3:uid="{C5398B7C-CF2B-4EA1-BB92-6A76344DB637}" name="Clothing"/>
+    <tableColumn id="4" xr3:uid="{72E0CFF9-F4A4-4C6C-83D1-0C55FD6F1265}" name="Electronics"/>
+    <tableColumn id="5" xr3:uid="{08893DFA-9692-422F-960A-DF2470356FC5}" name="Furniture"/>
+    <tableColumn id="6" xr3:uid="{F4A0C813-DA21-45FF-AA03-82CC5157703E}" name="Office Supplies"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA4E4CC4-905E-4CA0-AEE8-B4DDEFA3CAC0}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{AA4E4CC4-905E-4CA0-AEE8-B4DDEFA3CAC0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DA8ED783-9C60-487A-BBB7-3C9222FF66EC}" name="Metric"/>
+    <tableColumn id="2" xr3:uid="{D6FB752E-0081-499F-9EE3-FFEFA0E96B81}" name="Sales"/>
+    <tableColumn id="3" xr3:uid="{630076EA-2FD8-4940-A97E-987EAE83B3AB}" name="Profit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4F879FEE-325B-4556-AC6E-E85FBC3EF9A0}" name="Table5" displayName="Table5" ref="A9:B12" totalsRowShown="0">
+  <autoFilter ref="A9:B12" xr:uid="{4F879FEE-325B-4556-AC6E-E85FBC3EF9A0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2C7DEBC0-3A94-448A-8468-627B12524902}" name="Regression: Profit vs Sales"/>
+    <tableColumn id="2" xr3:uid="{F1DA4649-D153-459E-AA0E-40E488E74035}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EC4487E-5C47-45E0-ABBB-77EF30BAC050}" name="Table2" displayName="Table2" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{4EC4487E-5C47-45E0-ABBB-77EF30BAC050}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AB8DBAF3-309E-4836-8563-B016A03DD865}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{A5CBFD03-763D-4DD5-A070-3717493A24F0}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61F37361-3401-4009-B8DE-A9BA5608C1C0}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{61F37361-3401-4009-B8DE-A9BA5608C1C0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E0D6AC41-5CFD-4CF5-9DFB-3E885F91D71E}" name="Product_Category"/>
+    <tableColumn id="2" xr3:uid="{A8D17C63-6D35-4920-86E5-9B8D6984352C}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3089,11 +4160,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3186,7 +4267,7 @@
       </c>
       <c r="N2">
         <f ca="1">IF($A2&lt;&gt;"",NOW(),"")</f>
-        <v>45909.511166087963</v>
+        <v>45909.529153819443</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -8967,42 +10048,60 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="5">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="6"/>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <f>SUM(Data!M:M)</f>
         <v>265.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9012,9 +10111,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9190,6 +10296,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9197,158 +10306,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="e">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="e">
         <f ca="1">UNIQUE(Data!A2:A1048576)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" t="e">
-        <f t="shared" ref="E2:E11" si="0">INDEX(A:A,MATCH(F2,B:B,0))</f>
+      <c r="E2" s="3" t="e">
+        <f>INDEX(A:A,MATCH(F2,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F2" t="e">
-        <f t="shared" ref="F2:F11" si="1">LARGE(B:B,D2)</f>
+      <c r="F2" s="3" t="e">
+        <f>LARGE(B:B,D2)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" t="e">
-        <f t="shared" si="0"/>
+      <c r="E3" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F3,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F3" t="e">
-        <f t="shared" si="1"/>
+      <c r="F3" s="2" t="e">
+        <f>LARGE(B:B,D3)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" t="e">
-        <f t="shared" si="0"/>
+      <c r="E4" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F4,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F4" t="e">
-        <f t="shared" si="1"/>
+      <c r="F4" s="2" t="e">
+        <f>LARGE(B:B,D4)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" t="e">
-        <f t="shared" si="0"/>
+      <c r="E5" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F5,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F5" t="e">
-        <f t="shared" si="1"/>
+      <c r="F5" s="2" t="e">
+        <f>LARGE(B:B,D5)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" t="e">
-        <f t="shared" si="0"/>
+      <c r="E6" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F6,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F6" t="e">
-        <f t="shared" si="1"/>
+      <c r="F6" s="2" t="e">
+        <f>LARGE(B:B,D6)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" t="e">
-        <f t="shared" si="0"/>
+      <c r="E7" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F7,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F7" t="e">
-        <f t="shared" si="1"/>
+      <c r="F7" s="2" t="e">
+        <f>LARGE(B:B,D7)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" t="e">
-        <f t="shared" si="0"/>
+      <c r="E8" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F8,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F8" t="e">
-        <f t="shared" si="1"/>
+      <c r="F8" s="2" t="e">
+        <f>LARGE(B:B,D8)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" t="e">
-        <f t="shared" si="0"/>
+      <c r="E9" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F9,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F9" t="e">
-        <f t="shared" si="1"/>
+      <c r="F9" s="2" t="e">
+        <f>LARGE(B:B,D9)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" t="e">
-        <f t="shared" si="0"/>
+      <c r="E10" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F10,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F10" t="e">
-        <f t="shared" si="1"/>
+      <c r="F10" s="2" t="e">
+        <f>LARGE(B:B,D10)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" t="e">
-        <f t="shared" si="0"/>
+      <c r="E11" s="2" t="e">
+        <f>INDEX(A:A,MATCH(F11,B:B,0))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="e">
-        <f t="shared" si="1"/>
+      <c r="F11" s="2" t="e">
+        <f>LARGE(B:B,D11)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9361,9 +10508,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9487,6 +10643,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9494,9 +10653,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9591,6 +10757,9 @@
       <c r="A9" t="s">
         <v>95</v>
       </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9621,54 +10790,73 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <f>SUM(Data!E:E)</f>
         <v>195217.75999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>SUM(Data!I:I)</f>
         <v>68287.010000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>102</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>AVERAGE(Data!G:G)</f>
         <v>9.8250000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f ca="1">COUNTA(UNIQUE(Data!A2:A1048576))</f>
         <v>1</v>
       </c>
@@ -9676,6 +10864,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9683,9 +10874,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9737,5 +10934,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>